--- a/附件：数据报表.xlsx
+++ b/附件：数据报表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addison/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/addison/dp_di_iv1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93998CF0-03AA-E347-B0D6-DB2850E491DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A354F8-4B2E-2A46-8DF8-2232000AA9C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>月份</t>
   </si>
@@ -52,12 +54,6 @@
   </si>
   <si>
     <t>营业额</t>
-  </si>
-  <si>
-    <t>营业额同比增速</t>
-  </si>
-  <si>
-    <t>营业额环比增速</t>
   </si>
 </sst>
 </file>
@@ -409,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:K59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K69" sqref="K69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -423,13 +419,12 @@
     <col min="6" max="6" width="9.5" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
-    <col min="9" max="10" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
     <col min="11" max="11" width="12.83203125"/>
-    <col min="12" max="12" width="11.5" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -454,14 +449,8 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>42036</v>
       </c>
@@ -487,17 +476,11 @@
       <c r="H2" s="4">
         <v>1089.9359999999999</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
+      <c r="I2" s="4"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="4"/>
-    </row>
-    <row r="3" spans="1:13">
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>42064</v>
       </c>
@@ -511,7 +494,7 @@
         <v>3.52</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E59" si="0">B3-C3-D3</f>
+        <f t="shared" ref="E3:E58" si="0">B3-C3-D3</f>
         <v>11.559999999999999</v>
       </c>
       <c r="F3" s="5">
@@ -523,17 +506,11 @@
       <c r="H3" s="4">
         <v>1214.52</v>
       </c>
-      <c r="I3">
-        <v>0.114303959</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="4"/>
-    </row>
-    <row r="4" spans="1:13">
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>42095</v>
       </c>
@@ -559,17 +536,11 @@
       <c r="H4" s="4">
         <v>65.25</v>
       </c>
-      <c r="I4">
-        <v>-0.94627507200000005</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="5"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="1:13">
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>42125</v>
       </c>
@@ -595,17 +566,11 @@
       <c r="H5" s="4">
         <v>1955.76</v>
       </c>
-      <c r="I5">
-        <v>28.973333329999999</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="5"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="1:13">
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>42156</v>
       </c>
@@ -631,17 +596,11 @@
       <c r="H6" s="4">
         <v>4284.75</v>
       </c>
-      <c r="I6">
-        <v>1.1908362990000001</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="1:13">
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>42186</v>
       </c>
@@ -667,17 +626,11 @@
       <c r="H7" s="4">
         <v>16046.888999999999</v>
       </c>
-      <c r="I7">
-        <v>2.7451167509999999</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0</v>
-      </c>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="4"/>
-    </row>
-    <row r="8" spans="1:13">
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>42217</v>
       </c>
@@ -703,17 +656,11 @@
       <c r="H8" s="4">
         <v>20001.213</v>
       </c>
-      <c r="I8">
-        <v>0.24642309200000001</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="4"/>
-    </row>
-    <row r="9" spans="1:13">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>42248</v>
       </c>
@@ -739,17 +686,11 @@
       <c r="H9" s="4">
         <v>8865.4740000000002</v>
       </c>
-      <c r="I9">
-        <v>-0.55675318299999998</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="4"/>
-    </row>
-    <row r="10" spans="1:13">
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>42278</v>
       </c>
@@ -775,17 +716,11 @@
       <c r="H10" s="4">
         <v>14293.925999999999</v>
       </c>
-      <c r="I10">
-        <v>0.61231379200000002</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="4"/>
-    </row>
-    <row r="11" spans="1:13">
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>42309</v>
       </c>
@@ -811,17 +746,11 @@
       <c r="H11" s="4">
         <v>5111.7719999999999</v>
       </c>
-      <c r="I11">
-        <v>-0.64238152599999998</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="4"/>
-    </row>
-    <row r="12" spans="1:13">
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>42339</v>
       </c>
@@ -847,17 +776,11 @@
       <c r="H12" s="4">
         <v>5839.527</v>
       </c>
-      <c r="I12">
-        <v>0.14236843900000001</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="5"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="1:13">
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>42370</v>
       </c>
@@ -883,17 +806,11 @@
       <c r="H13" s="4">
         <v>10575.459000000001</v>
       </c>
-      <c r="I13">
-        <v>0.81101294700000004</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
+      <c r="I13" s="4"/>
+      <c r="J13" s="5"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="4"/>
-    </row>
-    <row r="14" spans="1:13">
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>42401</v>
       </c>
@@ -919,17 +836,11 @@
       <c r="H14" s="4">
         <v>6410.4210000000003</v>
       </c>
-      <c r="I14">
-        <v>-0.39383992699999998</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4.8814655169999996</v>
-      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="4"/>
-    </row>
-    <row r="15" spans="1:13">
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>42430</v>
       </c>
@@ -955,17 +866,11 @@
       <c r="H15" s="4">
         <v>18975.57</v>
       </c>
-      <c r="I15">
-        <v>1.9601129159999999</v>
-      </c>
-      <c r="J15" s="1">
-        <v>14.6239255</v>
-      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="4"/>
-    </row>
-    <row r="16" spans="1:13">
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>42461</v>
       </c>
@@ -991,17 +896,11 @@
       <c r="H16" s="4">
         <v>10007.001</v>
       </c>
-      <c r="I16">
-        <v>-0.47263766000000001</v>
-      </c>
-      <c r="J16" s="1">
-        <v>152.364</v>
-      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="3"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="4"/>
-    </row>
-    <row r="17" spans="1:13">
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>42491</v>
       </c>
@@ -1027,17 +926,11 @@
       <c r="H17" s="4">
         <v>57479.16</v>
       </c>
-      <c r="I17">
-        <v>4.7438946990000002</v>
-      </c>
-      <c r="J17" s="1">
-        <v>28.38967972</v>
-      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="3"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="4"/>
-    </row>
-    <row r="18" spans="1:13">
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="2">
         <v>42522</v>
       </c>
@@ -1063,17 +956,11 @@
       <c r="H18" s="4">
         <v>9906.9509999999991</v>
       </c>
-      <c r="I18">
-        <v>-0.82764273200000005</v>
-      </c>
-      <c r="J18" s="1">
-        <v>1.312142132</v>
-      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:13">
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="2">
         <v>42552</v>
       </c>
@@ -1099,17 +986,11 @@
       <c r="H19" s="4">
         <v>10736.757</v>
       </c>
-      <c r="I19">
-        <v>8.3759977999999999E-2</v>
-      </c>
-      <c r="J19" s="1">
-        <v>-0.33091348700000001</v>
-      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="4"/>
-    </row>
-    <row r="20" spans="1:13">
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="2">
         <v>42583</v>
       </c>
@@ -1135,17 +1016,11 @@
       <c r="H20" s="4">
         <v>23546.027999999998</v>
       </c>
-      <c r="I20">
-        <v>1.1930297949999999</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0.177230001</v>
-      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="3"/>
       <c r="K20" s="4"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13">
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>42614</v>
       </c>
@@ -1171,17 +1046,11 @@
       <c r="H21" s="4">
         <v>15455.897999999999</v>
       </c>
-      <c r="I21">
-        <v>-0.34358788699999998</v>
-      </c>
-      <c r="J21" s="1">
-        <v>0.74338089500000004</v>
-      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="4"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13">
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="2">
         <v>42644</v>
       </c>
@@ -1207,17 +1076,11 @@
       <c r="H22" s="4">
         <v>27644.0586</v>
       </c>
-      <c r="I22">
-        <v>0.78857667200000003</v>
-      </c>
-      <c r="J22" s="1">
-        <v>0.93397241600000003</v>
-      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="3"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13">
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="2">
         <v>42675</v>
       </c>
@@ -1243,17 +1106,11 @@
       <c r="H23" s="4">
         <v>33852.135000000002</v>
       </c>
-      <c r="I23">
-        <v>0.22457181500000001</v>
-      </c>
-      <c r="J23" s="1">
-        <v>5.6223875010000004</v>
-      </c>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3"/>
       <c r="K23" s="4"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13">
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2">
         <v>42705</v>
       </c>
@@ -1279,17 +1136,11 @@
       <c r="H24" s="4">
         <v>60878.954700000002</v>
       </c>
-      <c r="I24">
-        <v>0.79837858699999997</v>
-      </c>
-      <c r="J24" s="1">
-        <v>9.4253229239999996</v>
-      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="3"/>
       <c r="K24" s="4"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2">
         <v>42736</v>
       </c>
@@ -1315,17 +1166,11 @@
       <c r="H25" s="4">
         <v>133759.0287</v>
       </c>
-      <c r="I25">
-        <v>1.197130837</v>
-      </c>
-      <c r="J25" s="1">
-        <v>11.64805894</v>
-      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="4"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13">
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="2">
         <v>42767</v>
       </c>
@@ -1351,17 +1196,11 @@
       <c r="H26" s="4">
         <v>114590.8146</v>
       </c>
-      <c r="I26">
-        <v>-0.143304077</v>
-      </c>
-      <c r="J26" s="1">
-        <v>16.875708070000002</v>
-      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="4"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13">
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>42795</v>
       </c>
@@ -1387,17 +1226,11 @@
       <c r="H27" s="4">
         <v>57537.893700000001</v>
       </c>
-      <c r="I27">
-        <v>-0.49788389300000002</v>
-      </c>
-      <c r="J27" s="1">
-        <v>2.0322089679999999</v>
-      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="4"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13">
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="2">
         <v>42826</v>
       </c>
@@ -1423,17 +1256,11 @@
       <c r="H28" s="4">
         <v>54542.274899999997</v>
       </c>
-      <c r="I28">
-        <v>-5.2063406999999999E-2</v>
-      </c>
-      <c r="J28" s="1">
-        <v>4.4504117089999999</v>
-      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="3"/>
       <c r="K28" s="4"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="4"/>
-    </row>
-    <row r="29" spans="1:13">
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="2">
         <v>42856</v>
       </c>
@@ -1459,17 +1286,11 @@
       <c r="H29" s="4">
         <v>85335.837899999999</v>
       </c>
-      <c r="I29">
-        <v>0.56458156599999998</v>
-      </c>
-      <c r="J29" s="1">
-        <v>0.484639614</v>
-      </c>
+      <c r="I29" s="4"/>
+      <c r="J29" s="3"/>
       <c r="K29" s="4"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="4"/>
-    </row>
-    <row r="30" spans="1:13">
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>42887</v>
       </c>
@@ -1495,17 +1316,11 @@
       <c r="H30" s="4">
         <v>69197.538</v>
       </c>
-      <c r="I30">
-        <v>-0.18911515100000001</v>
-      </c>
-      <c r="J30" s="1">
-        <v>5.9847461649999998</v>
-      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="3"/>
       <c r="K30" s="4"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="4"/>
-    </row>
-    <row r="31" spans="1:13">
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="2">
         <v>42917</v>
       </c>
@@ -1531,17 +1346,11 @@
       <c r="H31" s="4">
         <v>41523.586199999998</v>
       </c>
-      <c r="I31">
-        <v>-0.39992682699999998</v>
-      </c>
-      <c r="J31" s="1">
-        <v>2.8674234869999999</v>
-      </c>
+      <c r="I31" s="4"/>
+      <c r="J31" s="3"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="4"/>
-    </row>
-    <row r="32" spans="1:13">
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>42948</v>
       </c>
@@ -1567,17 +1376,11 @@
       <c r="H32" s="4">
         <v>81092.795700000002</v>
       </c>
-      <c r="I32">
-        <v>0.95293333599999996</v>
-      </c>
-      <c r="J32" s="1">
-        <v>2.444011691</v>
-      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="3"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="4"/>
-    </row>
-    <row r="33" spans="1:13">
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2">
         <v>42979</v>
       </c>
@@ -1603,17 +1406,11 @@
       <c r="H33" s="4">
         <v>81427.049700000003</v>
       </c>
-      <c r="I33">
-        <v>4.1218699999999997E-3</v>
-      </c>
-      <c r="J33" s="1">
-        <v>4.2683480249999999</v>
-      </c>
+      <c r="I33" s="4"/>
+      <c r="J33" s="3"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="4"/>
-    </row>
-    <row r="34" spans="1:13">
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="2">
         <v>43009</v>
       </c>
@@ -1639,17 +1436,11 @@
       <c r="H34" s="4">
         <v>37385.483399999997</v>
       </c>
-      <c r="I34">
-        <v>-0.54087144799999998</v>
-      </c>
-      <c r="J34" s="1">
-        <v>0.35238777399999999</v>
-      </c>
+      <c r="I34" s="4"/>
+      <c r="J34" s="3"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="4"/>
-    </row>
-    <row r="35" spans="1:13">
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="2">
         <v>43040</v>
       </c>
@@ -1675,17 +1466,11 @@
       <c r="H35" s="4">
         <v>27833.5272</v>
       </c>
-      <c r="I35">
-        <v>-0.25549906900000002</v>
-      </c>
-      <c r="J35" s="1">
-        <v>-0.17779108499999999</v>
-      </c>
+      <c r="I35" s="4"/>
+      <c r="J35" s="3"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="4"/>
-    </row>
-    <row r="36" spans="1:13">
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="2">
         <v>43070</v>
       </c>
@@ -1711,17 +1496,11 @@
       <c r="H36" s="4">
         <v>75728.540999999997</v>
       </c>
-      <c r="I36">
-        <v>1.720766953</v>
-      </c>
-      <c r="J36" s="1">
-        <v>0.24391986299999999</v>
-      </c>
+      <c r="I36" s="4"/>
+      <c r="J36" s="3"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="1:13">
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>43101</v>
       </c>
@@ -1747,17 +1526,11 @@
       <c r="H37" s="4">
         <v>75796.14</v>
       </c>
-      <c r="I37">
-        <v>8.9264900000000002E-4</v>
-      </c>
-      <c r="J37" s="1">
-        <v>-0.43333813999999998</v>
-      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="3"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="1:13">
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="2">
         <v>43132</v>
       </c>
@@ -1783,17 +1556,11 @@
       <c r="H38" s="4">
         <v>50615.642999999996</v>
       </c>
-      <c r="I38">
-        <v>-0.33221344800000002</v>
-      </c>
-      <c r="J38" s="1">
-        <v>-0.55829231700000004</v>
-      </c>
+      <c r="I38" s="4"/>
+      <c r="J38" s="3"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="4"/>
-    </row>
-    <row r="39" spans="1:13">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>43160</v>
       </c>
@@ -1819,17 +1586,11 @@
       <c r="H39" s="4">
         <v>37808.373</v>
       </c>
-      <c r="I39">
-        <v>-0.25302987900000001</v>
-      </c>
-      <c r="J39" s="1">
-        <v>-0.342896121</v>
-      </c>
+      <c r="I39" s="4"/>
+      <c r="J39" s="3"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="4"/>
-    </row>
-    <row r="40" spans="1:13">
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2">
         <v>43191</v>
       </c>
@@ -1855,17 +1616,11 @@
       <c r="H40" s="4">
         <v>83493.9087</v>
       </c>
-      <c r="I40">
-        <v>1.2083443979999999</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.53081088099999996</v>
-      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="3"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="4"/>
-    </row>
-    <row r="41" spans="1:13">
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>43221</v>
       </c>
@@ -1891,17 +1646,11 @@
       <c r="H41" s="4">
         <v>193331.57399999999</v>
       </c>
-      <c r="I41">
-        <v>1.3155171080000001</v>
-      </c>
-      <c r="J41" s="1">
-        <v>1.2655378880000001</v>
-      </c>
+      <c r="I41" s="4"/>
+      <c r="J41" s="3"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="4"/>
-    </row>
-    <row r="42" spans="1:13">
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="2">
         <v>43252</v>
       </c>
@@ -1927,17 +1676,11 @@
       <c r="H42" s="4">
         <v>371014.93650000001</v>
       </c>
-      <c r="I42">
-        <v>0.91906023800000003</v>
-      </c>
-      <c r="J42" s="1">
-        <v>4.3616782799999996</v>
-      </c>
+      <c r="I42" s="4"/>
+      <c r="J42" s="3"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="4"/>
-    </row>
-    <row r="43" spans="1:13">
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="2">
         <v>43282</v>
       </c>
@@ -1963,17 +1706,11 @@
       <c r="H43" s="4">
         <v>284227.54710000003</v>
       </c>
-      <c r="I43">
-        <v>-0.23391885600000001</v>
-      </c>
-      <c r="J43" s="1">
-        <v>5.8449662739999999</v>
-      </c>
+      <c r="I43" s="4"/>
+      <c r="J43" s="3"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="4"/>
-    </row>
-    <row r="44" spans="1:13">
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="2">
         <v>43313</v>
       </c>
@@ -1999,17 +1736,11 @@
       <c r="H44" s="4">
         <v>301760.83110000001</v>
       </c>
-      <c r="I44">
-        <v>6.1687489999999998E-2</v>
-      </c>
-      <c r="J44" s="1">
-        <v>2.7211792799999999</v>
-      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="3"/>
       <c r="K44" s="4"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="4"/>
-    </row>
-    <row r="45" spans="1:13">
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="2">
         <v>43344</v>
       </c>
@@ -2035,17 +1766,11 @@
       <c r="H45" s="4">
         <v>437207.25089999998</v>
       </c>
-      <c r="I45">
-        <v>0.44885354799999999</v>
-      </c>
-      <c r="J45" s="1">
-        <v>4.3693121939999999</v>
-      </c>
+      <c r="I45" s="4"/>
+      <c r="J45" s="3"/>
       <c r="K45" s="4"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="4"/>
-    </row>
-    <row r="46" spans="1:13">
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="2">
         <v>43374</v>
       </c>
@@ -2071,17 +1796,11 @@
       <c r="H46" s="4">
         <v>256657.0557</v>
       </c>
-      <c r="I46">
-        <v>-0.41296249099999999</v>
-      </c>
-      <c r="J46" s="1">
-        <v>5.8651521520000003</v>
-      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="3"/>
       <c r="K46" s="4"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="4"/>
-    </row>
-    <row r="47" spans="1:13">
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>43405</v>
       </c>
@@ -2107,17 +1826,11 @@
       <c r="H47" s="4">
         <v>396112.82699999999</v>
       </c>
-      <c r="I47">
-        <v>0.54335451999999995</v>
-      </c>
-      <c r="J47" s="1">
-        <v>13.231499449999999</v>
-      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="3"/>
       <c r="K47" s="4"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="4"/>
-    </row>
-    <row r="48" spans="1:13">
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="2">
         <v>43435</v>
       </c>
@@ -2143,17 +1856,11 @@
       <c r="H48" s="4">
         <v>315797.39370000002</v>
       </c>
-      <c r="I48">
-        <v>-0.202758981</v>
-      </c>
-      <c r="J48" s="1">
-        <v>3.1701238329999999</v>
-      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="3"/>
       <c r="K48" s="4"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="4"/>
-    </row>
-    <row r="49" spans="1:13">
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="2">
         <v>43466</v>
       </c>
@@ -2179,17 +1886,11 @@
       <c r="H49" s="4">
         <v>455959.97039999999</v>
       </c>
-      <c r="I49">
-        <v>0.44383702800000002</v>
-      </c>
-      <c r="J49" s="1">
-        <v>5.0156093750000004</v>
-      </c>
+      <c r="I49" s="4"/>
+      <c r="J49" s="3"/>
       <c r="K49" s="4"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="4"/>
-    </row>
-    <row r="50" spans="1:13">
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="2">
         <v>43497</v>
       </c>
@@ -2215,17 +1916,11 @@
       <c r="H50" s="4">
         <v>298925.7708</v>
       </c>
-      <c r="I50">
-        <v>-0.34440347799999999</v>
-      </c>
-      <c r="J50" s="1">
-        <v>4.90579813</v>
-      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="3"/>
       <c r="K50" s="4"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="4"/>
-    </row>
-    <row r="51" spans="1:13">
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="2">
         <v>43525</v>
       </c>
@@ -2251,17 +1946,11 @@
       <c r="H51" s="4">
         <v>429184.11959999998</v>
       </c>
-      <c r="I51">
-        <v>0.43575483100000001</v>
-      </c>
-      <c r="J51" s="1">
-        <v>10.35156278</v>
-      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="3"/>
       <c r="K51" s="4"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="4"/>
-    </row>
-    <row r="52" spans="1:13">
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="2">
         <v>43556</v>
       </c>
@@ -2287,17 +1976,11 @@
       <c r="H52" s="4">
         <v>425958.86430000002</v>
       </c>
-      <c r="I52">
-        <v>-7.5148519999999998E-3</v>
-      </c>
-      <c r="J52" s="1">
-        <v>4.1016759309999999</v>
-      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="4"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="4"/>
-    </row>
-    <row r="53" spans="1:13">
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="2">
         <v>43586</v>
       </c>
@@ -2323,17 +2006,11 @@
       <c r="H53" s="4">
         <v>360781.20480000001</v>
       </c>
-      <c r="I53">
-        <v>-0.153013976</v>
-      </c>
-      <c r="J53" s="1">
-        <v>0.86612666199999999</v>
-      </c>
+      <c r="I53" s="4"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="4"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="4"/>
-    </row>
-    <row r="54" spans="1:13">
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="2">
         <v>43617</v>
       </c>
@@ -2359,17 +2036,11 @@
       <c r="H54" s="4">
         <v>352498.35239999997</v>
       </c>
-      <c r="I54">
-        <v>-2.2958104E-2</v>
-      </c>
-      <c r="J54" s="1">
-        <v>-4.9907921000000001E-2</v>
-      </c>
+      <c r="I54" s="4"/>
+      <c r="J54" s="3"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="4"/>
-    </row>
-    <row r="55" spans="1:13">
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="2">
         <v>43647</v>
       </c>
@@ -2395,17 +2066,11 @@
       <c r="H55" s="4">
         <v>302390.57189999998</v>
       </c>
-      <c r="I55">
-        <v>-0.14215039600000001</v>
-      </c>
-      <c r="J55" s="1">
-        <v>6.3903111999999998E-2</v>
-      </c>
+      <c r="I55" s="4"/>
+      <c r="J55" s="3"/>
       <c r="K55" s="4"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="4"/>
-    </row>
-    <row r="56" spans="1:13">
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="2">
         <v>43678</v>
       </c>
@@ -2431,17 +2096,11 @@
       <c r="H56" s="4">
         <v>328643.07419999997</v>
       </c>
-      <c r="I56">
-        <v>8.6816536999999999E-2</v>
-      </c>
-      <c r="J56" s="1">
-        <v>8.9084600999999999E-2</v>
-      </c>
+      <c r="I56" s="4"/>
+      <c r="J56" s="3"/>
       <c r="K56" s="4"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="4"/>
-    </row>
-    <row r="57" spans="1:13">
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="2">
         <v>43709</v>
       </c>
@@ -2467,17 +2126,11 @@
       <c r="H57" s="4">
         <v>317777.853</v>
       </c>
-      <c r="I57">
-        <v>-3.3060856E-2</v>
-      </c>
-      <c r="J57" s="1">
-        <v>-0.27316426599999999</v>
-      </c>
+      <c r="I57" s="4"/>
+      <c r="J57" s="3"/>
       <c r="K57" s="4"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="4"/>
-    </row>
-    <row r="58" spans="1:13">
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="2">
         <v>43739</v>
       </c>
@@ -2503,55 +2156,13 @@
       <c r="H58" s="4">
         <v>223738.32629999999</v>
       </c>
-      <c r="I58">
-        <v>-0.29592850999999998</v>
-      </c>
-      <c r="J58" s="1">
-        <v>-0.12825959300000001</v>
-      </c>
+      <c r="I58" s="4"/>
+      <c r="J58" s="3"/>
       <c r="K58" s="4"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="4"/>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" s="2">
-        <v>43770</v>
-      </c>
-      <c r="B59" s="3">
-        <v>8740.08</v>
-      </c>
-      <c r="C59" s="3">
-        <v>132.09</v>
-      </c>
-      <c r="D59" s="3">
-        <v>321.2</v>
-      </c>
-      <c r="E59" s="3">
-        <f t="shared" si="0"/>
-        <v>8286.7899999999991</v>
-      </c>
-      <c r="F59" s="3">
-        <v>334.05</v>
-      </c>
-      <c r="G59">
-        <v>19817.241595200001</v>
-      </c>
-      <c r="H59" s="4">
-        <v>261018.44399999999</v>
-      </c>
-      <c r="I59">
-        <v>0.16662374399999999</v>
-      </c>
-      <c r="J59" s="1">
-        <v>-0.34105025700000002</v>
-      </c>
-      <c r="K59" s="4"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="4"/>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
